--- a/RCI04N.xlsx
+++ b/RCI04N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
   <si>
     <t/>
   </si>
@@ -230,6 +230,24 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>20140720</t>
+  </si>
+  <si>
+    <t>CMPN OCHEESECAKE 90</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20140719</t>
+  </si>
+  <si>
+    <t>CMPNA BON VAN CHO 45</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -622,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1213,6 +1231,46 @@
         <v>29</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/RCI04N.xlsx
+++ b/RCI04N.xlsx
@@ -11,41 +11,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
   <si>
     <t/>
   </si>
   <si>
+    <t>10027774</t>
+  </si>
+  <si>
+    <t>CMPN CONC CHO&amp;VAN110</t>
+  </si>
+  <si>
+    <t>RCI04N</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
     <t>10037636</t>
   </si>
   <si>
     <t>CMPN HULA KCG.HJU 45</t>
   </si>
   <si>
-    <t>RCI04N</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>RT</t>
   </si>
   <si>
+    <t>20026370</t>
+  </si>
+  <si>
+    <t>CMPN HULA TAP KTN 45</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20090499</t>
+  </si>
+  <si>
+    <t>CNCRTO.MD CK.CRMY 80</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20099150</t>
+  </si>
+  <si>
+    <t>CMPN FRZ COT.CNDY 55</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20100263</t>
+  </si>
+  <si>
+    <t>CNCRTO.MD STRAW 80</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20128377</t>
+  </si>
+  <si>
+    <t>CMPN ICE CSHW NUT90</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20131384</t>
+  </si>
+  <si>
+    <t>CMPNA HULA ALPKAT 45</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20136304</t>
+  </si>
+  <si>
+    <t>CMPN FRUITZY APPLE90</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20137107</t>
+  </si>
+  <si>
+    <t>CMPNA HEART CRNCH 88</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10000407</t>
+  </si>
+  <si>
+    <t>CMPN TROPICANA.CHO65</t>
+  </si>
+  <si>
+    <t>20016706</t>
+  </si>
+  <si>
+    <t>CAMPN SPNGBOB PCK 70</t>
+  </si>
+  <si>
+    <t>20078821</t>
+  </si>
+  <si>
+    <t>CMPNA SPDRMAN STR 55</t>
+  </si>
+  <si>
+    <t>20134924</t>
+  </si>
+  <si>
+    <t>CMPNA ICE RNBW POP60</t>
+  </si>
+  <si>
+    <t>20135663</t>
+  </si>
+  <si>
+    <t>CMPN CNCRTO ICOWNC80</t>
+  </si>
+  <si>
+    <t>20140182</t>
+  </si>
+  <si>
+    <t>CMP HULA MAX K.HJ 65</t>
+  </si>
+  <si>
+    <t>20140719</t>
+  </si>
+  <si>
+    <t>CMPNA BON VAN CHO 45</t>
+  </si>
+  <si>
+    <t>20140720</t>
+  </si>
+  <si>
+    <t>CMPN OCHEESECAKE 90</t>
+  </si>
+  <si>
+    <t>10006126</t>
+  </si>
+  <si>
+    <t>CMPN NEAPOLITAN 350</t>
+  </si>
+  <si>
     <t>20016399</t>
   </si>
   <si>
     <t>CMPN SPNGBOB CUP 80</t>
   </si>
   <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20026370</t>
-  </si>
-  <si>
-    <t>CMPN HULA TAP KTN 45</t>
-  </si>
-  <si>
     <t>20069848</t>
   </si>
   <si>
@@ -58,49 +193,43 @@
     <t>CNCERTO SNDAE CHO110</t>
   </si>
   <si>
+    <t>20121363</t>
+  </si>
+  <si>
+    <t>CMPN MCH DUO VAN CHK</t>
+  </si>
+  <si>
+    <t>20137105</t>
+  </si>
+  <si>
+    <t>CMPN COOKIE CRMY 350</t>
+  </si>
+  <si>
+    <t>20138973</t>
+  </si>
+  <si>
+    <t>CAMPINA SHINE MUSCAT</t>
+  </si>
+  <si>
+    <t>20139459</t>
+  </si>
+  <si>
+    <t>CMPN SEOUL LYCYOG 55</t>
+  </si>
+  <si>
+    <t>20139731</t>
+  </si>
+  <si>
+    <t>CMPNA COOKIE CRMY 55</t>
+  </si>
+  <si>
     <t>20115317</t>
   </si>
   <si>
     <t>CMPNA HULA DURIAN 90</t>
   </si>
   <si>
-    <t>10027774</t>
-  </si>
-  <si>
-    <t>CMPN CONC CHO&amp;VAN110</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>10000407</t>
-  </si>
-  <si>
-    <t>CMPN TROPICANA.CHO65</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>20016706</t>
-  </si>
-  <si>
-    <t>CAMPN SPNGBOB PCK 70</t>
-  </si>
-  <si>
-    <t>20078821</t>
-  </si>
-  <si>
-    <t>CMPNA SPDRMAN STR 55</t>
-  </si>
-  <si>
-    <t>20131384</t>
-  </si>
-  <si>
-    <t>CMPNA HULA ALPKAT 45</t>
-  </si>
-  <si>
-    <t>RT,(E-1B)</t>
+    <t>11</t>
   </si>
   <si>
     <t>20134922</t>
@@ -109,145 +238,13 @@
     <t>CMPN ICE STRW LIME70</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>20136304</t>
-  </si>
-  <si>
-    <t>CMPN FRUITZY APPLE90</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>20139459</t>
-  </si>
-  <si>
-    <t>CMPN SEOUL LYCYOG 55</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>20090499</t>
-  </si>
-  <si>
-    <t>CNCRTO.MD CK.CRMY 80</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20100263</t>
-  </si>
-  <si>
-    <t>CNCRTO.MD STRAW 80</t>
-  </si>
-  <si>
-    <t>10006126</t>
-  </si>
-  <si>
-    <t>CMPN NEAPOLITAN 350</t>
-  </si>
-  <si>
-    <t>20099150</t>
-  </si>
-  <si>
-    <t>CMPN FRZ COT.CNDY 55</t>
-  </si>
-  <si>
-    <t>20121363</t>
-  </si>
-  <si>
-    <t>CMPN MCH DUO VAN CHK</t>
-  </si>
-  <si>
-    <t>20128377</t>
-  </si>
-  <si>
-    <t>CMPN ICE CSHW NUT90</t>
+    <t>999</t>
   </si>
   <si>
     <t>20134455</t>
   </si>
   <si>
     <t>CMPNA TRP DBL CHO 65</t>
-  </si>
-  <si>
-    <t>20134924</t>
-  </si>
-  <si>
-    <t>CMPNA ICE RNBW POP60</t>
-  </si>
-  <si>
-    <t>20135663</t>
-  </si>
-  <si>
-    <t>CMPN CNCRTO ICOWNC80</t>
-  </si>
-  <si>
-    <t>20137105</t>
-  </si>
-  <si>
-    <t>CMPN COOKIE CRMY 350</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>20137107</t>
-  </si>
-  <si>
-    <t>CMPNA HEART CRNCH 88</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20138973</t>
-  </si>
-  <si>
-    <t>CAMPINA SHINE MUSCAT</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>20139731</t>
-  </si>
-  <si>
-    <t>CMPNA COOKIE CRMY 55</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20140182</t>
-  </si>
-  <si>
-    <t>CMP HULA MAX K.HJ 65</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>20140720</t>
-  </si>
-  <si>
-    <t>CMPN OCHEESECAKE 90</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20140719</t>
-  </si>
-  <si>
-    <t>CMPNA BON VAN CHO 45</t>
-  </si>
-  <si>
-    <t>13</t>
   </si>
 </sst>
 </file>
@@ -646,7 +643,7 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
@@ -705,38 +702,38 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -745,18 +742,18 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -765,38 +762,38 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -805,18 +802,18 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -825,18 +822,18 @@
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -845,18 +842,18 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -865,350 +862,350 @@
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1222,13 +1219,13 @@
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1242,13 +1239,13 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1262,13 +1259,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
